--- a/Data/Data cleaned/data_clean_LFP_15.xlsx
+++ b/Data/Data cleaned/data_clean_LFP_15.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,6 +815,166 @@
         <v>7.485137199442997</v>
       </c>
     </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>701.7025553590535</v>
+      </c>
+      <c r="B55">
+        <v>7.603709308550368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>714.7778452223768</v>
+      </c>
+      <c r="B56">
+        <v>8.001520992274356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>727.8535337368409</v>
+      </c>
+      <c r="B57">
+        <v>8.18917897188375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>740.9292050894492</v>
+      </c>
+      <c r="B58">
+        <v>8.364027364595032</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>754.0062527344343</v>
+      </c>
+      <c r="B59">
+        <v>8.456801944208552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>767.0837406689233</v>
+      </c>
+      <c r="B60">
+        <v>8.668760542028798</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>780.1621346577462</v>
+      </c>
+      <c r="B61">
+        <v>8.790283738256498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>793.2454188836009</v>
+      </c>
+      <c r="B62">
+        <v>8.956315063744047</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>806.3312787940117</v>
+      </c>
+      <c r="B63">
+        <v>9.071483787190187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>819.4173545835779</v>
+      </c>
+      <c r="B64">
+        <v>9.641388783142286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>832.5047729883894</v>
+      </c>
+      <c r="B65">
+        <v>9.790210405939506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>845.5917034054055</v>
+      </c>
+      <c r="B66">
+        <v>9.923770280062277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>858.6817625493208</v>
+      </c>
+      <c r="B67">
+        <v>10.02983252255223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>871.7682604365076</v>
+      </c>
+      <c r="B68">
+        <v>10.15150597592499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>884.8534495022253</v>
+      </c>
+      <c r="B69">
+        <v>10.31711995130959</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>897.9394117148328</v>
+      </c>
+      <c r="B70">
+        <v>10.46916712143189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>911.027890567656</v>
+      </c>
+      <c r="B71">
+        <v>10.57931942673752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>922.8739243664235</v>
+      </c>
+      <c r="B72">
+        <v>10.72877962194828</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>935.9615718804309</v>
+      </c>
+      <c r="B73">
+        <v>10.86870820542096</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>964.1493233855921</v>
+      </c>
+      <c r="B74">
+        <v>11.42207231322497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
